--- a/StructureDefinition-ext-R5-EpisodeOfCare.reason.xlsx
+++ b/StructureDefinition-ext-R5-EpisodeOfCare.reason.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `EpisodeOfCare.reason` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `EpisodeOfCare.reason` is mapped to FHIR R4 structure `EpisodeOfCare`, but has no target element specified.</t>
+Element `EpisodeOfCare.reason` is will have a context of EpisodeOfCare based on following the parent source element upwards and mapping to `EpisodeOfCare`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -140,7 +140,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:EpisodeOfCare</t>
   </si>
   <si>
     <t>ID</t>
@@ -346,7 +346,7 @@
   </si>
   <si>
     <t>Element `EpisodeOfCare.reason.use` is part of an existing definition because parent element `EpisodeOfCare.reason` requires a cross-version extension.
-Element `EpisodeOfCare.reason.use` is mapped to FHIR R4 structure `EpisodeOfCare`, but has no target element specified.</t>
+Element `EpisodeOfCare.reason.use` is will have a context of EpisodeOfCare based on following the parent source element upwards and mapping to `EpisodeOfCare`.</t>
   </si>
   <si>
     <t>Extension.extension:use.id</t>
@@ -429,7 +429,7 @@
   </si>
   <si>
     <t>Element `EpisodeOfCare.reason.value` is part of an existing definition because parent element `EpisodeOfCare.reason` requires a cross-version extension.
-Element `EpisodeOfCare.reason.value` is mapped to FHIR R4 structure `EpisodeOfCare`, but has no target element specified.</t>
+Element `EpisodeOfCare.reason.value` is will have a context of EpisodeOfCare based on following the parent source element upwards and mapping to `EpisodeOfCare`.</t>
   </si>
   <si>
     <t>Extension.extension:value.id</t>
@@ -502,7 +502,7 @@
   </si>
   <si>
     <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept`.
-Element `CodeableReference.concept` is mapped to FHIR R4 structure `Reference`, but has no target element specified.</t>
+Element `CodeableReference.concept` is will have a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
   </si>
   <si>
     <t>Extension.extension:value.extension:concept.id</t>
@@ -535,7 +535,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` is mapped to FHIR R4 structure `CodeableConcept`, but has no target element specified.
+    <t>Element `CodeableReference.reference` is will have a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
 Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference`.</t>
   </si>
   <si>
@@ -902,7 +902,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="124.1640625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="141.078125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-EpisodeOfCare.reason.xlsx
+++ b/StructureDefinition-ext-R5-EpisodeOfCare.reason.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="176">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `EpisodeOfCare.reason` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `EpisodeOfCare.reason` is will have a context of EpisodeOfCare based on following the parent source element upwards and mapping to `EpisodeOfCare`.</t>
+Element `EpisodeOfCare.reason` has a context of EpisodeOfCare based on following the parent source element upwards and mapping to `EpisodeOfCare`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -346,7 +346,7 @@
   </si>
   <si>
     <t>Element `EpisodeOfCare.reason.use` is part of an existing definition because parent element `EpisodeOfCare.reason` requires a cross-version extension.
-Element `EpisodeOfCare.reason.use` is will have a context of EpisodeOfCare based on following the parent source element upwards and mapping to `EpisodeOfCare`.</t>
+Element `EpisodeOfCare.reason.use` has a context of EpisodeOfCare based on following the parent source element upwards and mapping to `EpisodeOfCare`.</t>
   </si>
   <si>
     <t>Extension.extension:use.id</t>
@@ -393,6 +393,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EpisodeOfCare.reason.use</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -429,7 +432,7 @@
   </si>
   <si>
     <t>Element `EpisodeOfCare.reason.value` is part of an existing definition because parent element `EpisodeOfCare.reason` requires a cross-version extension.
-Element `EpisodeOfCare.reason.value` is will have a context of EpisodeOfCare based on following the parent source element upwards and mapping to `EpisodeOfCare`.</t>
+Element `EpisodeOfCare.reason.value` has a context of EpisodeOfCare based on following the parent source element upwards and mapping to `EpisodeOfCare`.</t>
   </si>
   <si>
     <t>Extension.extension:value.id</t>
@@ -501,8 +504,8 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept`.
-Element `CodeableReference.concept` is will have a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
+Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
   </si>
   <si>
     <t>Extension.extension:value.extension:concept.id</t>
@@ -535,8 +538,8 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` is will have a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference`.</t>
+    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
+Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:value.extension:reference.id</t>
@@ -556,6 +559,9 @@
   </si>
   <si>
     <t>Extension.extension:value.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EpisodeOfCare.reason.value</t>
   </si>
   <si>
     <t>Extension.extension:value.value[x]</t>
@@ -902,7 +908,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="141.078125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="135.08984375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -1710,7 +1716,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -1752,7 +1758,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>87</v>
@@ -1767,15 +1773,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1798,7 +1804,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>102</v>
@@ -1855,7 +1861,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1867,21 +1873,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1906,14 +1912,14 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1982,7 +1988,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>106</v>
@@ -2085,7 +2091,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>108</v>
@@ -2188,13 +2194,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>77</v>
@@ -2219,10 +2225,10 @@
         <v>94</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2293,10 +2299,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2396,10 +2402,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2501,10 +2507,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2544,7 +2550,7 @@
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>77</v>
@@ -2586,7 +2592,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>87</v>
@@ -2601,15 +2607,15 @@
         <v>77</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2635,13 +2641,13 @@
         <v>88</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -2649,7 +2655,7 @@
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>77</v>
@@ -2691,7 +2697,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -2703,21 +2709,21 @@
         <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>77</v>
@@ -2742,14 +2748,14 @@
         <v>94</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -2818,10 +2824,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2921,10 +2927,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3026,10 +3032,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3069,7 +3075,7 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>77</v>
@@ -3111,7 +3117,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>87</v>
@@ -3126,15 +3132,15 @@
         <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3157,13 +3163,13 @@
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3190,11 +3196,11 @@
         <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>77</v>
@@ -3212,7 +3218,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -3224,21 +3230,21 @@
         <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>77</v>
@@ -3263,14 +3269,14 @@
         <v>94</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3339,10 +3345,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3442,10 +3448,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3547,10 +3553,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3590,7 +3596,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>77</v>
@@ -3632,7 +3638,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>87</v>
@@ -3647,15 +3653,15 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3678,13 +3684,13 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -3735,7 +3741,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -3747,15 +3753,15 @@
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>114</v>
@@ -3798,7 +3804,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3840,7 +3846,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>87</v>
@@ -3855,15 +3861,15 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -3886,13 +3892,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -3943,7 +3949,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -3955,18 +3961,18 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4048,7 +4054,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>87</v>
@@ -4063,15 +4069,15 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4094,13 +4100,13 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4151,7 +4157,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -4163,10 +4169,10 @@
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-EpisodeOfCare.reason.xlsx
+++ b/StructureDefinition-ext-R5-EpisodeOfCare.reason.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -504,8 +504,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
-Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:value.extension:concept.id</t>
@@ -523,7 +522,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-encounter-reason-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-encounter-reason-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:value.extension:reference</t>
@@ -538,8 +537,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:value.extension:reference.id</t>
@@ -554,7 +552,7 @@
     <t>Extension.extension:value.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Condition|0.0.1-snapshot-3|Condition|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Procedure|0.0.1-snapshot-3|Procedure|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Observation|0.0.1-snapshot-3|Observation|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-HealthcareService|0.0.1-snapshot-3|HealthcareService|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Condition|Condition|http://hl7.org/fhir/5.0/StructureDefinition/profile-Procedure|Procedure|http://hl7.org/fhir/5.0/StructureDefinition/profile-Observation|Observation|http://hl7.org/fhir/5.0/StructureDefinition/profile-HealthcareService|HealthcareService)
 </t>
   </si>
   <si>
@@ -908,7 +906,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="135.08984375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="129.1328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -919,7 +917,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="57.76953125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="53.6875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-EpisodeOfCare.reason.xlsx
+++ b/StructureDefinition-ext-R5-EpisodeOfCare.reason.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="174">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -345,8 +345,7 @@
     <t>What the reason value should be used as e.g. Chief Complaint, Health Concern, Health Maintenance (including screening).</t>
   </si>
   <si>
-    <t>Element `EpisodeOfCare.reason.use` is part of an existing definition because parent element `EpisodeOfCare.reason` requires a cross-version extension.
-Element `EpisodeOfCare.reason.use` has a context of EpisodeOfCare based on following the parent source element upwards and mapping to `EpisodeOfCare`.</t>
+    <t>Element `EpisodeOfCare.reason.use` has a context of EpisodeOfCare based on following the parent source element upwards and mapping to `EpisodeOfCare`.</t>
   </si>
   <si>
     <t>Extension.extension:use.id</t>
@@ -393,9 +392,6 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EpisodeOfCare.reason.use</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -412,6 +408,12 @@
 </t>
   </si>
   <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-encounter-reason-use-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -431,8 +433,7 @@
     <t>The medical reason that is expected to be addressed during the episode of care, expressed as a text, code or a reference to another resource.</t>
   </si>
   <si>
-    <t>Element `EpisodeOfCare.reason.value` is part of an existing definition because parent element `EpisodeOfCare.reason` requires a cross-version extension.
-Element `EpisodeOfCare.reason.value` has a context of EpisodeOfCare based on following the parent source element upwards and mapping to `EpisodeOfCare`.</t>
+    <t>Element `EpisodeOfCare.reason.value` has a context of EpisodeOfCare based on following the parent source element upwards and mapping to `EpisodeOfCare`.</t>
   </si>
   <si>
     <t>Extension.extension:value.id</t>
@@ -504,7 +505,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
+    <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept` as `Equivalent`, concept domain: `Equivalent`, value domain: `Equivalent`.</t>
   </si>
   <si>
     <t>Extension.extension:value.extension:concept.id</t>
@@ -519,12 +520,6 @@
     <t>Extension.extension:value.extension:concept.value[x]</t>
   </si>
   <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-encounter-reason-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:value.extension:reference</t>
   </si>
   <si>
@@ -537,7 +532,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference` as `Equivalent`, concept domain: `Equivalent`, value domain: `Equivalent`.</t>
   </si>
   <si>
     <t>Extension.extension:value.extension:reference.id</t>
@@ -552,14 +547,11 @@
     <t>Extension.extension:value.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Condition|Condition|http://hl7.org/fhir/5.0/StructureDefinition/profile-Procedure|Procedure|http://hl7.org/fhir/5.0/StructureDefinition/profile-Observation|Observation|http://hl7.org/fhir/5.0/StructureDefinition/profile-HealthcareService|HealthcareService)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Condition|0.0.1-snapshot-3|Condition|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Procedure|0.0.1-snapshot-3|Procedure|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Observation|0.0.1-snapshot-3|Observation|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-HealthcareService|0.0.1-snapshot-3|HealthcareService|4.0.1)
 </t>
   </si>
   <si>
     <t>Extension.extension:value.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EpisodeOfCare.reason.value</t>
   </si>
   <si>
     <t>Extension.extension:value.value[x]</t>
@@ -906,7 +898,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="129.1328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="131.76171875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -917,7 +909,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="53.6875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="71.49609375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1714,72 +1706,72 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="S8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
+      <c r="AG8" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1802,7 +1794,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>102</v>
@@ -1835,13 +1827,11 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y9" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="Y9" s="2"/>
       <c r="Z9" t="s" s="2">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>77</v>
@@ -1859,7 +1849,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1871,21 +1861,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1910,14 +1900,14 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1986,7 +1976,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>106</v>
@@ -2089,7 +2079,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>108</v>
@@ -2192,13 +2182,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>77</v>
@@ -2223,10 +2213,10 @@
         <v>94</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2297,10 +2287,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2400,10 +2390,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2505,10 +2495,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2548,7 +2538,7 @@
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>77</v>
@@ -2590,30 +2580,30 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2639,13 +2629,13 @@
         <v>88</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -2653,7 +2643,7 @@
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>77</v>
@@ -2695,7 +2685,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -2707,21 +2697,21 @@
         <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>77</v>
@@ -2746,14 +2736,14 @@
         <v>94</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -2822,10 +2812,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2925,10 +2915,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3030,10 +3020,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3073,7 +3063,7 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>77</v>
@@ -3115,30 +3105,30 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3161,13 +3151,13 @@
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3194,11 +3184,13 @@
         <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="Y22" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z22" t="s" s="2">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>77</v>
@@ -3216,7 +3208,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -3228,21 +3220,21 @@
         <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>77</v>
@@ -3267,14 +3259,14 @@
         <v>94</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3343,10 +3335,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3446,10 +3438,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3551,10 +3543,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3594,7 +3586,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>77</v>
@@ -3636,30 +3628,30 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3682,13 +3674,13 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -3739,7 +3731,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -3751,15 +3743,15 @@
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>114</v>
@@ -3802,7 +3794,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3844,30 +3836,30 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -3890,13 +3882,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -3947,7 +3939,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -3959,18 +3951,18 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4052,30 +4044,30 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4098,13 +4090,13 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4155,7 +4147,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -4167,10 +4159,10 @@
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
